--- a/Checklist/Mobile App/Mobile.xlsx
+++ b/Checklist/Mobile App/Mobile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max Berrutto\Documents\Dropbox\Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max Berrutto\Documents\Github\PentestResources\Checklist\Mobile App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498020BC-B7EB-42E7-B0F7-D10BF8301FE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5C5A1B-B517-4D16-812B-5F3A01C289CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3525" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mandatory Tools" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="163">
   <si>
     <t>Weak input validation</t>
   </si>
@@ -321,9 +321,6 @@
     <t>hsecscan</t>
   </si>
   <si>
-    <t>CORStest</t>
-  </si>
-  <si>
     <t>Insecure captcha</t>
   </si>
   <si>
@@ -446,9 +443,6 @@
     <t>IIS Short Name Enumeration</t>
   </si>
   <si>
-    <t>dirbuster |dirb |dirbgo | opendoor</t>
-  </si>
-  <si>
     <t>API Rate Limiter</t>
   </si>
   <si>
@@ -512,9 +506,6 @@
     <t>Sensitive Information in Java/Apache Cordova code</t>
   </si>
   <si>
-    <t>Web Server</t>
-  </si>
-  <si>
     <t>Application can be re-emsably</t>
   </si>
   <si>
@@ -570,6 +561,45 @@
   </si>
   <si>
     <t>DB Browser for SQLite</t>
+  </si>
+  <si>
+    <t>Diggy/Apkatshu Recon</t>
+  </si>
+  <si>
+    <t>dirhunt</t>
+  </si>
+  <si>
+    <t>corstest</t>
+  </si>
+  <si>
+    <t>corsy</t>
+  </si>
+  <si>
+    <t>Goohak</t>
+  </si>
+  <si>
+    <t>hakrawler</t>
+  </si>
+  <si>
+    <t>h2t</t>
+  </si>
+  <si>
+    <t>photon</t>
+  </si>
+  <si>
+    <t>linkfinder</t>
+  </si>
+  <si>
+    <t>wappalyzer</t>
+  </si>
+  <si>
+    <t>retire</t>
+  </si>
+  <si>
+    <t>getJS</t>
+  </si>
+  <si>
+    <t>dirbuster |dirb |dirsearch | opendoor |  gobuster</t>
   </si>
   <si>
     <r>
@@ -582,7 +612,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>require confirmation in greybox</t>
+      <t>require confirmation</t>
     </r>
     <r>
       <rPr>
@@ -594,14 +624,14 @@
     </r>
   </si>
   <si>
-    <t>Diggy/Apkatshu Recon</t>
+    <t>Tools</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -625,6 +655,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -737,7 +774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -770,6 +807,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1117,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0B3C4F-73FB-4E28-9665-247894A51A0B}">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,8 +1169,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>131</v>
+      <c r="A1" s="18" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1145,7 +1185,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1160,115 +1200,165 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>82</v>
+      <c r="A8" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>81</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>120</v>
+      <c r="A11" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>141</v>
+      <c r="A17" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>142</v>
+      <c r="A18" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>147</v>
+      <c r="A19" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>149</v>
+      <c r="A21" s="13" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="10" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>126</v>
+      <c r="A26" s="10" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1293,7 +1383,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1310,7 +1400,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="3"/>
     </row>
@@ -1326,12 +1416,12 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1386,7 +1476,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1401,18 +1491,18 @@
     </row>
     <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1442,7 +1532,7 @@
     </row>
     <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1453,43 +1543,43 @@
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" s="3"/>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B40" s="3"/>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B42" s="3"/>
     </row>
@@ -1507,19 +1597,19 @@
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B45" s="3"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B47" s="3"/>
     </row>
@@ -2583,52 +2673,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -2638,7 +2728,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -2671,37 +2761,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -2730,32 +2820,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2778,7 +2868,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2788,13 +2878,13 @@
     </row>
     <row r="3" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2820,7 +2910,7 @@
     <row r="10" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2841,7 +2931,7 @@
     <row r="15" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2930,7 +3020,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -2945,7 +3035,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -2955,7 +3045,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -3074,7 +3164,7 @@
     </row>
     <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
